--- a/biology/Zoologie/Acroceridae/Acroceridae.xlsx
+++ b/biology/Zoologie/Acroceridae/Acroceridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acroceridae (Leach, 1815) sont une famille de diptères réparties en trois sous-familles, cinquante genres et 520 espèces.
 Cyrtidae et Oncodidae en sont synonymes.
@@ -512,9 +524,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 févr. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 févr. 2013) :
 genre Acrocera
 genre Africaterphis
 genre Apelleia
@@ -564,11 +578,11 @@
 genre Thyllis
 genre Turbopsebius
 genre Villalus
-Selon ITIS      (28 févr. 2013)[2] :
+Selon ITIS      (28 févr. 2013) :
 sous-famille Acrocerinae
 sous-famille Panopinae
 sous-famille Philopotinae
-Selon NCBI  (28 févr. 2013)[3] :
+Selon NCBI  (28 févr. 2013) :
 genre Acrocera
 Acrocera bulla
 Acrocera orbicula
@@ -615,7 +629,7 @@
 Turbopsebius diligens
 genre Acroceridae n. gen. 'New Caledonia'
 Acroceridae gen. sp. 'New Caledonia'
-Selon Paleobiology Database                   (28 févr. 2013)[4] :
+Selon Paleobiology Database                   (28 févr. 2013) :
 genre Acrocera
 sous-famille Archocyrtinae
 genre Burmacyrtus
